--- a/config/testcases/Report_BEPV03(Clone).xlsx
+++ b/config/testcases/Report_BEPV03(Clone).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>TCID</t>
   </si>
@@ -232,7 +232,10 @@
     <t>Chờ nút mic trạng thái thu âm</t>
   </si>
   <si>
-    <t>Micro-Working[activeInHierarchy=true]</t>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>second,1</t>
   </si>
   <si>
     <t>Click skip game</t>
@@ -496,14 +499,14 @@
     <xf borderId="0" fillId="8" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -1692,18 +1695,18 @@
       <c r="C12" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="40" t="s">
+      <c r="D12" s="40" t="s">
         <v>70</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>71</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="21" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="35"/>
-      <c r="I12" s="41"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="35"/>
       <c r="K12" s="34"/>
       <c r="L12" s="35"/>
@@ -1723,20 +1726,20 @@
       <c r="Z12" s="27"/>
     </row>
     <row r="13" ht="53.25" customHeight="1">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="42" t="s">
+      <c r="C13" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="21" t="s">
@@ -1763,20 +1766,20 @@
       <c r="Z13" s="27"/>
     </row>
     <row r="14" ht="41.25" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="46"/>
       <c r="G14" s="47" t="s">
@@ -1880,10 +1883,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -7346,9 +7349,18 @@
       <c r="Z142" s="55"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="55"/>
-      <c r="B143" s="55"/>
-      <c r="C143" s="55"/>
+      <c r="A143" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"clickLesson")</f>
+        <v>clickLesson</v>
+      </c>
+      <c r="B143" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property")</f>
+        <v>element,component,property</v>
+      </c>
+      <c r="C143" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D143" s="55"/>
       <c r="E143" s="55"/>
       <c r="F143" s="55"/>
@@ -7374,9 +7386,15 @@
       <c r="Z143" s="55"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="55"/>
+      <c r="A144" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMapMgo")</f>
+        <v>swipeMapMgo</v>
+      </c>
       <c r="B144" s="55"/>
-      <c r="C144" s="55"/>
+      <c r="C144" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D144" s="55"/>
       <c r="E144" s="55"/>
       <c r="F144" s="55"/>
@@ -7402,9 +7420,18 @@
       <c r="Z144" s="55"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="55"/>
-      <c r="B145" s="55"/>
-      <c r="C145" s="55"/>
+      <c r="A145" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"verifyFlow")</f>
+        <v>verifyFlow</v>
+      </c>
+      <c r="B145" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"file expected")</f>
+        <v>file expected</v>
+      </c>
+      <c r="C145" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D145" s="55"/>
       <c r="E145" s="55"/>
       <c r="F145" s="55"/>
@@ -7430,9 +7457,15 @@
       <c r="Z145" s="55"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="55"/>
+      <c r="A146" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFileWhichCondition")</f>
+        <v>setVariableFileWhichCondition</v>
+      </c>
       <c r="B146" s="55"/>
-      <c r="C146" s="55"/>
+      <c r="C146" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D146" s="55"/>
       <c r="E146" s="55"/>
       <c r="F146" s="55"/>
@@ -7458,7 +7491,10 @@
       <c r="Z146" s="55"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="55"/>
+      <c r="A147" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfStringFile")</f>
+        <v>setVariableTypeOfStringFile</v>
+      </c>
       <c r="B147" s="55"/>
       <c r="C147" s="55"/>
       <c r="D147" s="55"/>
@@ -7486,7 +7522,10 @@
       <c r="Z147" s="55"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="55"/>
+      <c r="A148" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfIntFile")</f>
+        <v>setVariableTypeOfIntFile</v>
+      </c>
       <c r="B148" s="55"/>
       <c r="C148" s="55"/>
       <c r="D148" s="55"/>
@@ -7514,7 +7553,10 @@
       <c r="Z148" s="55"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="55"/>
+      <c r="A149" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPath")</f>
+        <v>getPath</v>
+      </c>
       <c r="B149" s="55"/>
       <c r="C149" s="55"/>
       <c r="D149" s="55"/>
@@ -31394,10 +31436,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
